--- a/Running projects/Citi Bank Dolmen Sky Tower/PO/001- Purchase order- for WCPU - MIA - CHINA.xlsx
+++ b/Running projects/Citi Bank Dolmen Sky Tower/PO/001- Purchase order- for WCPU - MIA - CHINA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Citi Bank Dolmen Sky Tower\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C147BE2D-7AC5-4D12-9621-F18CB2092B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA65915-4AA8-459B-A4D5-4189DBE2B5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,19 +387,19 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,15 +425,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1460499</xdr:colOff>
+      <xdr:colOff>1534582</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>5291</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>464608</xdr:colOff>
+      <xdr:colOff>538691</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
+      <xdr:rowOff>153458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -463,7 +463,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1894416" y="5291"/>
+          <a:off x="1968499" y="0"/>
           <a:ext cx="2496609" cy="1105958"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A12:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -916,7 +916,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="F12" s="6">
-        <v>45448</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -942,14 +942,14 @@
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
@@ -977,21 +977,21 @@
       <c r="A22" s="4">
         <v>1</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="24">
         <v>742500</v>
       </c>
       <c r="F22" s="21">
         <f>E22*C22</f>
-        <v>1485000</v>
+        <v>742500</v>
       </c>
       <c r="H22" s="14">
         <v>2577</v>
@@ -1005,21 +1005,21 @@
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="24">
         <v>1378300</v>
       </c>
       <c r="F23" s="21">
         <f>E23*C23</f>
-        <v>1378300</v>
+        <v>2756600</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14">
@@ -1028,16 +1028,16 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="22">
         <f>SUM(F22:F23)</f>
-        <v>2863300</v>
+        <v>3499100</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8">
@@ -1046,15 +1046,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="22">
-        <v>563300</v>
+        <v>699820</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8">
@@ -1063,16 +1063,16 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="27">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="25">
         <f>F24-F25</f>
-        <v>2300000</v>
+        <v>2799280</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8">
